--- a/Collection Storage.xlsx
+++ b/Collection Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lithou\Git\Legos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03AA5214-1B74-405D-9455-B5E0D328E191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E7709E-9E15-4FE6-AFCD-B32E99EC8459}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BF52DDE-7581-4518-B747-33A15CAD78A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BF52DDE-7581-4518-B747-33A15CAD78A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,12 +542,18 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -578,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -589,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -600,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -611,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -622,7 +628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -633,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -644,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -655,7 +661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -666,7 +672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -677,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -688,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -699,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -710,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -721,7 +727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -732,7 +738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -743,7 +749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -754,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -765,7 +771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -776,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -787,7 +793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -798,7 +804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -809,7 +815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -820,7 +826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -831,7 +837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -842,7 +848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -853,7 +859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -864,7 +870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -875,7 +881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -886,7 +892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -897,7 +903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -908,7 +914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -919,7 +925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -930,7 +936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -941,7 +947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -952,7 +958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -963,7 +969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -974,7 +980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -985,7 +991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1029,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
